--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -673,7 +673,7 @@
         <v>1.54</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
         <v>7.6</v>
@@ -703,16 +703,16 @@
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
@@ -847,7 +847,7 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
@@ -874,40 +874,40 @@
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
         <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>7.4</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1297,22 +1297,22 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
         <v>2.56</v>
@@ -1375,13 +1375,13 @@
         <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
         <v>1.5</v>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1507,7 +1507,7 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
         <v>1.63</v>
@@ -1516,13 +1516,13 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
         <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.16</v>
@@ -1648,7 +1648,7 @@
         <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S9" t="n">
         <v>2.22</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1699,7 +1699,7 @@
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.800000000000001</v>
@@ -1750,19 +1750,19 @@
         <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
         <v>12.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,28 +1771,28 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
         <v>3.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T10" t="n">
         <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
         <v>140</v>
@@ -1813,16 +1813,16 @@
         <v>410</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1834,25 +1834,25 @@
         <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
         <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>960</v>
       </c>
       <c r="AN10" t="n">
         <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>6.4</v>
@@ -1894,7 +1894,7 @@
         <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1903,28 +1903,28 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
@@ -1939,7 +1939,7 @@
         <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
         <v>9.800000000000001</v>
@@ -1960,7 +1960,7 @@
         <v>16.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="n">
         <v>24</v>
@@ -1969,22 +1969,22 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="n">
         <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>110</v>
       </c>
       <c r="AO11" t="n">
         <v>8.4</v>
@@ -2023,7 +2023,7 @@
         <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
         <v>2.5</v>
@@ -2041,25 +2041,25 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
         <v>2.46</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>17.5</v>
@@ -2092,10 +2092,10 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -673,7 +673,7 @@
         <v>1.54</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>7.6</v>
@@ -703,7 +703,7 @@
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
         <v>2.64</v>
@@ -712,7 +712,7 @@
         <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
         <v>2.06</v>
@@ -832,7 +832,7 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
@@ -841,7 +841,7 @@
         <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
@@ -874,7 +874,7 @@
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -892,7 +892,7 @@
         <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>25</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1075,10 +1075,10 @@
         <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
         <v>9.199999999999999</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1273,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>7.4</v>
@@ -1282,10 +1282,10 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1294,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.72</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.78</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1381,7 +1381,7 @@
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
         <v>1.5</v>
@@ -1405,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
         <v>18.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I8" t="n">
         <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1642,16 +1642,16 @@
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T9" t="n">
         <v>2.28</v>
@@ -1708,7 +1708,7 @@
         <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
         <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1780,19 +1780,19 @@
         <v>3.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
         <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="n">
         <v>170</v>
@@ -1852,7 +1852,7 @@
         <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1924,7 @@
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
@@ -1957,13 +1957,13 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1972,7 +1972,7 @@
         <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
         <v>2.5</v>
@@ -2047,22 +2047,22 @@
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2119,10 +2119,10 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -694,22 +694,22 @@
         <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
         <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -724,55 +724,55 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
         <v>2.74</v>
@@ -847,7 +847,7 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
@@ -895,7 +895,7 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>48</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1075,10 +1075,10 @@
         <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
         <v>9.199999999999999</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.16</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
@@ -1222,7 +1222,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
@@ -1309,10 +1309,10 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.72</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1372,10 +1372,10 @@
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
         <v>18.5</v>
@@ -1414,13 +1414,13 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1432,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
         <v>24</v>
@@ -1444,10 +1444,10 @@
         <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.37</v>
@@ -1492,7 +1492,7 @@
         <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.63</v>
@@ -1519,7 +1519,7 @@
         <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1543,7 +1543,7 @@
         <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
@@ -1555,7 +1555,7 @@
         <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="n">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
         <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S9" t="n">
         <v>2.24</v>
@@ -1687,7 +1687,7 @@
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AF9" t="n">
         <v>8.199999999999999</v>
@@ -1696,25 +1696,25 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
@@ -1786,7 +1786,7 @@
         <v>2.02</v>
       </c>
       <c r="S10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1816,7 +1816,7 @@
         <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
         <v>44</v>
@@ -1828,7 +1828,7 @@
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
@@ -1840,19 +1840,19 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1912,7 +1912,7 @@
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.84</v>
@@ -1939,7 +1939,7 @@
         <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
         <v>9.800000000000001</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2119,10 +2119,10 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
@@ -709,7 +709,7 @@
         <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -733,7 +733,7 @@
         <v>260</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -748,7 +748,7 @@
         <v>9.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -760,10 +760,10 @@
         <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>130</v>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>3.9</v>
@@ -826,19 +826,19 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
         <v>2.74</v>
@@ -880,7 +880,7 @@
         <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
@@ -949,7 +949,7 @@
         <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
         <v>5.1</v>
@@ -1210,13 +1210,13 @@
         <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1231,19 +1231,19 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1303,13 +1303,13 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>46</v>
@@ -1345,16 +1345,16 @@
         <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I7" t="n">
         <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
         <v>18.5</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI7" t="n">
         <v>30</v>
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>50</v>
@@ -1483,10 +1483,10 @@
         <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
         <v>5.6</v>
@@ -1519,7 +1519,7 @@
         <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1618,7 +1618,7 @@
         <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="I9" t="n">
         <v>22</v>
@@ -1645,13 +1645,13 @@
         <v>2.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
         <v>2.28</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1702,19 +1702,19 @@
         <v>290</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
@@ -1777,22 +1777,22 @@
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
         <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1807,52 +1807,52 @@
         <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD10" t="n">
         <v>44</v>
       </c>
       <c r="AE10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>9.199999999999999</v>
@@ -2023,10 +2023,10 @@
         <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
         <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -706,10 +706,10 @@
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -832,7 +832,7 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
@@ -880,7 +880,7 @@
         <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -895,16 +895,16 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -970,7 +970,7 @@
         <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
         <v>9.199999999999999</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1267,10 +1267,10 @@
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
@@ -1294,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1309,10 +1309,10 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1366,7 +1366,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1384,10 +1384,10 @@
         <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
         <v>18.5</v>
@@ -1417,19 +1417,19 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>13.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
         <v>40</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>1.38</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
         <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>11.5</v>
@@ -1552,10 +1552,10 @@
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
         <v>38</v>
@@ -1618,16 +1618,16 @@
         <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S9" t="n">
         <v>2.28</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>290</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G10" t="n">
         <v>1.31</v>
@@ -1762,7 +1762,7 @@
         <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,19 +1780,19 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
         <v>1.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="n">
         <v>60</v>
@@ -1816,16 +1816,16 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="n">
         <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1840,16 +1840,16 @@
         <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
         <v>130</v>
@@ -1885,16 +1885,16 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.63</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.65</v>
-      </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -1957,25 +1957,25 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
         <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL11" t="n">
         <v>80</v>
@@ -2026,7 +2026,7 @@
         <v>2.44</v>
       </c>
       <c r="I12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
@@ -2047,10 +2047,10 @@
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.49</v>
@@ -2062,7 +2062,7 @@
         <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.48</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>4.9</v>
@@ -706,13 +706,13 @@
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AA2" t="n">
         <v>260</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4.9</v>
@@ -832,7 +832,7 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
@@ -841,13 +841,13 @@
         <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,55 +859,55 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1000</v>
       </c>
-      <c r="AA3" t="n">
-        <v>70</v>
-      </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
         <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I4" t="n">
         <v>3.15</v>
@@ -952,7 +952,7 @@
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
         <v>2.5</v>
@@ -1216,10 +1216,10 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.08</v>
@@ -1297,10 +1297,10 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1345,13 +1345,13 @@
         <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1366,25 +1366,25 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
         <v>2.9</v>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>1.38</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
@@ -1558,16 +1558,16 @@
         <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AK8" t="n">
         <v>170</v>
@@ -1579,7 +1579,7 @@
         <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AO8" t="n">
         <v>5.1</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.21</v>
       </c>
       <c r="H9" t="n">
         <v>19</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>8.800000000000001</v>
@@ -1642,7 +1642,7 @@
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
@@ -1657,7 +1657,7 @@
         <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AF9" t="n">
         <v>8.199999999999999</v>
@@ -1696,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI9" t="n">
         <v>290</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
         <v>1.31</v>
@@ -1756,13 +1756,13 @@
         <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1780,10 +1780,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.96</v>
@@ -1792,7 +1792,7 @@
         <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>390</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
         <v>42</v>
@@ -1828,10 +1828,10 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
         <v>1.62</v>
@@ -1894,10 +1894,10 @@
         <v>1.63</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -1915,19 +1915,19 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1939,22 +1939,22 @@
         <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>16.5</v>
@@ -1987,7 +1987,7 @@
         <v>120</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>3.15</v>
       </c>
       <c r="H12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.46</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
@@ -2056,7 +2056,7 @@
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2080,7 +2080,7 @@
         <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -2119,7 +2119,7 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="n">
         <v>24</v>
       </c>
-      <c r="Y2" t="n">
-        <v>30</v>
-      </c>
       <c r="Z2" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF3" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="n">
         <v>24</v>
       </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>13</v>
-      </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
         <v>24</v>
       </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AO8" t="n">
         <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>390</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -1603,61 +1603,61 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.19</v>
+        <v>9.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>1.38</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>1.39</v>
       </c>
       <c r="J9" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.6</v>
+        <v>390</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>170</v>
       </c>
       <c r="AL9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.45</v>
+        <v>200</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="K10" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>430</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>140</v>
       </c>
-      <c r="AA10" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AM10" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>95</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>1.29</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>1.31</v>
       </c>
       <c r="H11" t="n">
-        <v>1.62</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.63</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>140</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>390</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>210</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>1.63</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,192 +2071,327 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
         <v>24</v>
       </c>
-      <c r="AF12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Independiente (Ecu)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>LDU</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>2.48</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>2.84</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="H14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>3.7</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>2.04</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
         <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,7 +700,7 @@
         <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
         <v>1.61</v>
@@ -715,7 +715,7 @@
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
         <v>2.2</v>
@@ -727,22 +727,22 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -754,7 +754,7 @@
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -763,10 +763,10 @@
         <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>8.4</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -832,67 +832,67 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
         <v>14</v>
@@ -904,10 +904,10 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -958,31 +958,31 @@
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>18.5</v>
@@ -1000,13 +1000,13 @@
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>15.5</v>
@@ -1015,7 +1015,7 @@
         <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
         <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1225,16 +1225,16 @@
         <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>2.12</v>
@@ -1243,76 +1243,76 @@
         <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
         <v>3.4</v>
@@ -1357,16 +1357,16 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
@@ -1375,7 +1375,7 @@
         <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
@@ -1390,40 +1390,40 @@
         <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
@@ -1432,22 +1432,22 @@
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1495,16 +1495,16 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
         <v>2.8</v>
@@ -1525,64 +1525,64 @@
         <v>2.9</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
         <v>27</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1615,22 +1615,22 @@
         <v>9.6</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I9" t="n">
         <v>1.39</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1648,31 +1648,31 @@
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
         <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
         <v>11.5</v>
@@ -1684,37 +1684,37 @@
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
         <v>95</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AK9" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
         <v>120</v>
       </c>
       <c r="AM9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="n">
         <v>150</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>200</v>
       </c>
       <c r="AO9" t="n">
         <v>5.1</v>
@@ -1753,7 +1753,7 @@
         <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1765,7 +1765,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1774,37 +1774,37 @@
         <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U10" t="n">
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,13 +1825,13 @@
         <v>430</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="n">
         <v>290</v>
@@ -1843,13 +1843,13 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1888,19 +1888,19 @@
         <v>1.31</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,7 +1912,7 @@
         <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q11" t="n">
         <v>1.38</v>
@@ -1921,7 +1921,7 @@
         <v>2.02</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
         <v>1.73</v>
@@ -1930,64 +1930,64 @@
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
         <v>60</v>
       </c>
       <c r="Z11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="n">
         <v>140</v>
       </c>
-      <c r="AA11" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>160</v>
-      </c>
       <c r="AF11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>27</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>6.4</v>
       </c>
-      <c r="G12" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2062,22 +2062,22 @@
         <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2086,43 +2086,43 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
         <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
         <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2170,13 +2170,13 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2200,19 +2200,19 @@
         <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
@@ -2221,28 +2221,28 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>15.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -682,7 +682,7 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,10 +700,10 @@
         <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
         <v>2.36</v>
@@ -715,10 +715,10 @@
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -742,7 +742,7 @@
         <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -772,7 +772,7 @@
         <v>8.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -811,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -832,13 +832,13 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
         <v>2.6</v>
@@ -847,7 +847,7 @@
         <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -856,7 +856,7 @@
         <v>3.1</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>32</v>
@@ -865,7 +865,7 @@
         <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -880,7 +880,7 @@
         <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
@@ -898,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J4" t="n">
         <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -970,7 +970,7 @@
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
         <v>1.56</v>
@@ -979,16 +979,16 @@
         <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -997,58 +997,58 @@
         <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,67 +1063,67 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>1.71</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>110</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.01</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>2.08</v>
       </c>
       <c r="I6" t="n">
-        <v>9.199999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.04</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.6</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>1.37</v>
+        <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>1.39</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="V9" t="n">
-        <v>3.55</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>23</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>360</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>150</v>
-      </c>
       <c r="AO9" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>19.5</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>1.38</v>
       </c>
       <c r="J10" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>430</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.6</v>
+        <v>360</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.35</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>11</v>
       </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="AC11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>430</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>8.4</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.2</v>
+        <v>1.29</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>1.31</v>
       </c>
       <c r="H12" t="n">
-        <v>1.63</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>2.54</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB12" t="n">
         <v>15</v>
       </c>
-      <c r="AB12" t="n">
-        <v>22</v>
-      </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2143,256 +2143,526 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>1.63</v>
       </c>
       <c r="I13" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>2.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
         <v>34</v>
       </c>
-      <c r="AB13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AJ13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO13" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Club Independiente Petro</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>110</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>110</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Independiente (Ecu)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>LDU</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="F16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J16" t="n">
         <v>3.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="K16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>2.04</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
         <v>13.5</v>
@@ -754,7 +754,7 @@
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>8.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -808,13 +808,13 @@
         <v>1.47</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
@@ -835,25 +835,25 @@
         <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
         <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -880,7 +880,7 @@
         <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO3" t="n">
         <v>110</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -976,7 +976,7 @@
         <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
         <v>1.62</v>
@@ -985,10 +985,10 @@
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>110</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="S5" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
         <v>3.4</v>
@@ -1216,10 +1216,10 @@
         <v>2.08</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1231,31 +1231,31 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1378,25 +1378,25 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>38</v>
@@ -1480,10 +1480,10 @@
         <v>2.46</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
@@ -1573,10 +1573,10 @@
         <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H9" t="n">
         <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1660,10 +1660,10 @@
         <v>2.9</v>
       </c>
       <c r="V9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.59</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.6</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1717,7 +1717,7 @@
         <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
@@ -1777,7 +1777,7 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.63</v>
@@ -1789,13 +1789,13 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W10" t="n">
         <v>1.1</v>
@@ -1825,7 +1825,7 @@
         <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
         <v>36</v>
@@ -1840,19 +1840,19 @@
         <v>360</v>
       </c>
       <c r="AK10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="n">
         <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
         <v>8.6</v>
@@ -1912,13 +1912,13 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S11" t="n">
         <v>2.26</v>
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
         <v>65</v>
@@ -1951,25 +1951,25 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AI11" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.4</v>
@@ -2029,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
         <v>7.2</v>
@@ -2047,7 +2047,7 @@
         <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.37</v>
@@ -2062,7 +2062,7 @@
         <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>1.09</v>
@@ -2071,7 +2071,7 @@
         <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
         <v>60</v>
@@ -2083,7 +2083,7 @@
         <v>380</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>16.5</v>
@@ -2104,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2122,7 +2122,7 @@
         <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
         <v>1.63</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2185,7 +2185,7 @@
         <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2200,13 +2200,13 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="W13" t="n">
         <v>1.18</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2215,7 +2215,7 @@
         <v>9.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
         <v>22</v>
@@ -2254,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO13" t="n">
         <v>8.4</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
         <v>3.15</v>
@@ -2308,25 +2308,25 @@
         <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
         <v>1.63</v>
@@ -2341,19 +2341,19 @@
         <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
@@ -2371,13 +2371,13 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
         <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2386,13 +2386,13 @@
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>110</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="K15" t="n">
-        <v>110</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2461,7 +2461,7 @@
         <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2473,7 +2473,7 @@
         <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
@@ -2578,10 +2578,10 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
@@ -2593,76 +2593,76 @@
         <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15</v>
       </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="n">
         <v>55</v>
       </c>
-      <c r="AF16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>65</v>
-      </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -712,13 +712,13 @@
         <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -817,7 +817,7 @@
         <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -835,13 +835,13 @@
         <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
         <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.87</v>
@@ -865,7 +865,7 @@
         <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -901,10 +901,10 @@
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
         <v>110</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
@@ -967,7 +967,7 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -976,7 +976,7 @@
         <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.62</v>
@@ -988,7 +988,7 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1042,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
         <v>1.87</v>
@@ -1081,37 +1081,37 @@
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="R5" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="S5" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1249,7 +1249,7 @@
         <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1480,7 +1480,7 @@
         <v>2.46</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
@@ -1510,13 +1510,13 @@
         <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.87</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
         <v>2.68</v>
       </c>
       <c r="H9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.64</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1642,7 +1642,7 @@
         <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
         <v>1.54</v>
@@ -1765,7 +1765,7 @@
         <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1786,10 +1786,10 @@
         <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
@@ -1828,10 +1828,10 @@
         <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.19</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1906,16 +1906,16 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
         <v>1.78</v>
@@ -1933,13 +1933,13 @@
         <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X11" t="n">
         <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1960,13 +1960,13 @@
         <v>470</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="n">
         <v>310</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.19</v>
@@ -2047,7 +2047,7 @@
         <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q12" t="n">
         <v>1.37</v>
@@ -2056,7 +2056,7 @@
         <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
         <v>1.73</v>
@@ -2119,7 +2119,7 @@
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
         <v>100</v>
@@ -2182,7 +2182,7 @@
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.83</v>
@@ -2191,10 +2191,10 @@
         <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
         <v>2.04</v>
@@ -2320,7 +2320,7 @@
         <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
         <v>1.51</v>
@@ -2329,7 +2329,7 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.48</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
@@ -2461,19 +2461,19 @@
         <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
         <v>2.76</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2644,10 +2644,10 @@
         <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -706,13 +706,13 @@
         <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>46</v>
@@ -811,10 +811,10 @@
         <v>8.4</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>5.3</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -838,22 +838,22 @@
         <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
         <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO3" t="n">
         <v>110</v>
@@ -940,10 +940,10 @@
         <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
         <v>3.75</v>
@@ -955,7 +955,7 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,13 +967,13 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -1027,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>18.5</v>
@@ -1042,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="R5" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,46 +1138,46 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>2.08</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -1516,7 +1516,7 @@
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1.87</v>
@@ -1525,7 +1525,7 @@
         <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
         <v>1.67</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.66</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.68</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1639,7 +1639,7 @@
         <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
         <v>2.8</v>
@@ -1648,22 +1648,22 @@
         <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U9" t="n">
         <v>2.9</v>
       </c>
       <c r="V9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.6</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.59</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -1699,7 +1699,7 @@
         <v>13.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
@@ -1717,7 +1717,7 @@
         <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1786,13 +1786,13 @@
         <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.97</v>
       </c>
       <c r="V10" t="n">
         <v>3.55</v>
@@ -1852,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1915,7 +1915,7 @@
         <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
         <v>1.78</v>
@@ -1924,10 +1924,10 @@
         <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AI11" t="n">
         <v>310</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.19</v>
@@ -2041,13 +2041,13 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.37</v>
@@ -2056,7 +2056,7 @@
         <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.73</v>
@@ -2071,7 +2071,7 @@
         <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="n">
         <v>60</v>
@@ -2116,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
         <v>3.4</v>
@@ -2155,7 +2155,7 @@
         <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
         <v>1.63</v>
@@ -2185,7 +2185,7 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2248,7 +2248,7 @@
         <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
@@ -2311,19 +2311,19 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
         <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
         <v>2.86</v>
@@ -2431,7 +2431,7 @@
         <v>1.69</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2470,7 +2470,7 @@
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
@@ -2578,28 +2578,28 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
@@ -2608,7 +2608,7 @@
         <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2617,13 +2617,13 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
@@ -2632,7 +2632,7 @@
         <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2641,13 +2641,13 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
         <v>38</v>
@@ -2656,13 +2656,13 @@
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
         <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -685,7 +685,7 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -697,22 +697,22 @@
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -763,13 +763,13 @@
         <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>46</v>
@@ -805,19 +805,19 @@
         <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -844,16 +844,16 @@
         <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -940,13 +940,13 @@
         <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
         <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -961,19 +961,19 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -985,7 +985,7 @@
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -1075,7 +1075,7 @@
         <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.85</v>
@@ -1084,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1102,28 +1102,28 @@
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="V5" t="n">
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="X5" t="n">
         <v>44</v>
@@ -1141,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,25 +1273,25 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.26</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1378,73 +1378,73 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="n">
         <v>13</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1504,13 +1504,13 @@
         <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
         <v>2.66</v>
@@ -1621,7 +1621,7 @@
         <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1639,7 +1639,7 @@
         <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>2.8</v>
@@ -1660,7 +1660,7 @@
         <v>2.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
         <v>1.6</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
         <v>10.5</v>
@@ -1762,7 +1762,7 @@
         <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1783,16 +1783,16 @@
         <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.98</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.96</v>
       </c>
       <c r="V10" t="n">
         <v>3.55</v>
@@ -1810,7 +1810,7 @@
         <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
         <v>36</v>
@@ -1912,7 +1912,7 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
@@ -1927,7 +1927,7 @@
         <v>2.34</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -1957,7 +1957,7 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AF11" t="n">
         <v>7.8</v>
@@ -1972,7 +1972,7 @@
         <v>310</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G12" t="n">
         <v>1.31</v>
@@ -2032,10 +2032,10 @@
         <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2059,7 +2059,7 @@
         <v>1.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
@@ -2077,7 +2077,7 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="n">
         <v>380</v>
@@ -2092,7 +2092,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2104,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2113,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
         <v>95</v>
@@ -2122,7 +2122,7 @@
         <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2155,19 +2155,19 @@
         <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2185,7 +2185,7 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2200,7 +2200,7 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="W13" t="n">
         <v>1.18</v>
@@ -2251,7 +2251,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
         <v>90</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2329,7 +2329,7 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>2.58</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
         <v>2.82</v>
@@ -2575,10 +2575,10 @@
         <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.3</v>
@@ -2590,10 +2590,10 @@
         <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
         <v>3.55</v>
@@ -2602,10 +2602,10 @@
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
         <v>1.57</v>
@@ -2623,13 +2623,13 @@
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>44</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G2" t="n">
         <v>1.85</v>
@@ -676,7 +676,7 @@
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -805,13 +805,13 @@
         <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I3" t="n">
         <v>8.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -844,16 +844,16 @@
         <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
         <v>110</v>
@@ -943,10 +943,10 @@
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -955,13 +955,13 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -970,10 +970,10 @@
         <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -985,7 +985,7 @@
         <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -1042,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1099,85 +1099,85 @@
         <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL5" t="n">
         <v>27</v>
       </c>
-      <c r="AK5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>24</v>
-      </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1252,10 +1252,10 @@
         <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1345,13 +1345,13 @@
         <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1381,19 +1381,19 @@
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1426,7 +1426,7 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1528,7 +1528,7 @@
         <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>42</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1645,22 +1645,22 @@
         <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
         <v>1.49</v>
       </c>
       <c r="U9" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
         <v>1.6</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>10.5</v>
@@ -1762,7 +1762,7 @@
         <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1780,7 +1780,7 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.6</v>
@@ -1789,7 +1789,7 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
         <v>1.98</v>
@@ -1852,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1912,7 +1912,7 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
@@ -1960,7 +1960,7 @@
         <v>450</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
         <v>6.8</v>
@@ -2068,7 +2068,7 @@
         <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X12" t="n">
         <v>42</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
         <v>6.2</v>
       </c>
-      <c r="G13" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
@@ -2200,16 +2200,16 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X13" t="n">
         <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>9.6</v>
@@ -2227,7 +2227,7 @@
         <v>9.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF13" t="n">
         <v>50</v>
@@ -2293,16 +2293,16 @@
         <v>3.15</v>
       </c>
       <c r="H14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.46</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2320,7 +2320,7 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.52</v>
@@ -2329,13 +2329,13 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
         <v>1.46</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>30</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="I15" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -2455,43 +2455,43 @@
         <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
         <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
         <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
@@ -2500,34 +2500,34 @@
         <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
@@ -2575,7 +2575,7 @@
         <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2599,13 +2599,13 @@
         <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
         <v>1.57</v>
@@ -2614,10 +2614,10 @@
         <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>60</v>
@@ -2626,7 +2626,7 @@
         <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
@@ -2635,13 +2635,13 @@
         <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
@@ -2662,7 +2662,7 @@
         <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
         <v>1.85</v>
@@ -805,10 +805,10 @@
         <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
         <v>8.6</v>
@@ -817,10 +817,10 @@
         <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,28 +832,28 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -973,10 +973,10 @@
         <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
         <v>1.62</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.22</v>
@@ -1099,58 +1099,58 @@
         <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
         <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1159,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
         <v>2.64</v>
@@ -1375,13 +1375,13 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
@@ -1495,7 +1495,7 @@
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1504,10 +1504,10 @@
         <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>42</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1639,37 +1639,37 @@
         <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
         <v>1.49</v>
       </c>
       <c r="U9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>22</v>
@@ -1678,19 +1678,19 @@
         <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1699,25 +1699,25 @@
         <v>13.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>1.38</v>
@@ -1759,25 +1759,25 @@
         <v>1.39</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
         <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
         <v>1.64</v>
@@ -1789,7 +1789,7 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>1.98</v>
@@ -1798,7 +1798,7 @@
         <v>3.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AK10" t="n">
         <v>140</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO10" t="n">
         <v>5.1</v>
@@ -1891,7 +1891,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
@@ -1960,19 +1960,19 @@
         <v>450</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AI11" t="n">
         <v>310</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I12" t="n">
         <v>11.5</v>
@@ -2035,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.12</v>
@@ -2062,13 +2062,13 @@
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="X12" t="n">
         <v>42</v>
@@ -2080,7 +2080,7 @@
         <v>120</v>
       </c>
       <c r="AA12" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB12" t="n">
         <v>15.5</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>95</v>
@@ -2116,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>3.4</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.3</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
@@ -2188,76 +2188,76 @@
         <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
         <v>16.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2329,13 +2329,13 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W14" t="n">
         <v>1.46</v>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2392,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="G15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -2470,10 +2470,10 @@
         <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>26</v>
@@ -2482,7 +2482,7 @@
         <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2494,10 +2494,10 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
@@ -2509,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2524,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
@@ -2581,7 +2581,7 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
@@ -2596,25 +2596,25 @@
         <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>22</v>
@@ -2626,7 +2626,7 @@
         <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
@@ -2635,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK16" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -679,7 +679,7 @@
         <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -697,16 +697,16 @@
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
         <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
         <v>120</v>
@@ -736,13 +736,13 @@
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -751,28 +751,28 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.45</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
@@ -820,7 +820,7 @@
         <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -850,7 +850,7 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
         <v>3.2</v>
@@ -865,7 +865,7 @@
         <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,10 +874,10 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
@@ -889,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>14</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -970,49 +970,49 @@
         <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
         <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1024,13 +1024,13 @@
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1039,10 +1039,10 @@
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
         <v>1.67</v>
@@ -1081,16 +1081,16 @@
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
         <v>1.4</v>
@@ -1111,22 +1111,22 @@
         <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>2.48</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,46 +1138,46 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1219,7 +1219,7 @@
         <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1237,13 +1237,13 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.46</v>
@@ -1252,67 +1252,67 @@
         <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1378,19 @@
         <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>2.66</v>
@@ -1402,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1498,19 +1498,19 @@
         <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
@@ -1522,7 +1522,7 @@
         <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>1.42</v>
@@ -1531,7 +1531,7 @@
         <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H9" t="n">
         <v>2.54</v>
@@ -1624,10 +1624,10 @@
         <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1639,25 +1639,25 @@
         <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
         <v>1.49</v>
       </c>
       <c r="U9" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1666,25 +1666,25 @@
         <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -1693,28 +1693,28 @@
         <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.38</v>
@@ -1780,7 +1780,7 @@
         <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.6</v>
@@ -1792,16 +1792,16 @@
         <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>9.800000000000001</v>
@@ -1837,13 +1837,13 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AK10" t="n">
         <v>140</v>
       </c>
       <c r="AL10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1915,7 +1915,7 @@
         <v>2.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
         <v>1.78</v>
@@ -1927,7 +1927,7 @@
         <v>2.34</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -1936,10 +1936,10 @@
         <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,10 +1954,10 @@
         <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AF11" t="n">
         <v>7.8</v>
@@ -1969,7 +1969,7 @@
         <v>150</v>
       </c>
       <c r="AI11" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.4</v>
@@ -2023,7 +2023,7 @@
         <v>1.32</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
         <v>11.5</v>
@@ -2041,7 +2041,7 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.12</v>
@@ -2056,19 +2056,19 @@
         <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X12" t="n">
         <v>42</v>
@@ -2083,7 +2083,7 @@
         <v>360</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>16.5</v>
@@ -2104,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2119,7 +2119,7 @@
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
         <v>95</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.68</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.7</v>
-      </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2176,46 +2176,46 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
         <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="W13" t="n">
         <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2230,13 +2230,13 @@
         <v>16.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2245,7 +2245,7 @@
         <v>160</v>
       </c>
       <c r="AK13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
         <v>75</v>
@@ -2290,10 +2290,10 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I14" t="n">
         <v>2.44</v>
@@ -2329,10 +2329,10 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V14" t="n">
         <v>1.69</v>
@@ -2428,49 +2428,49 @@
         <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
         <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
         <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
         <v>1.52</v>
@@ -2479,7 +2479,7 @@
         <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
         <v>25</v>
@@ -2488,46 +2488,46 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
         <v>3.25</v>
@@ -2578,7 +2578,7 @@
         <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>3.35</v>
@@ -2608,7 +2608,7 @@
         <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2617,13 +2617,13 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
@@ -2641,13 +2641,13 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
         <v>38</v>
@@ -2662,7 +2662,7 @@
         <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -673,16 +673,16 @@
         <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -706,7 +706,7 @@
         <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
@@ -742,7 +742,7 @@
         <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -808,19 +808,19 @@
         <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,7 +832,7 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -853,19 +853,19 @@
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -898,16 +898,16 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>5.2</v>
@@ -973,64 +973,64 @@
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>2.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
         <v>15</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1039,10 +1039,10 @@
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
         <v>5.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
         <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1147,37 +1147,37 @@
         <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
         <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
         <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1225,7 +1225,7 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1243,19 +1243,19 @@
         <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
         <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1375,22 +1375,22 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
         <v>2.66</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1495,7 +1495,7 @@
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1507,10 +1507,10 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
@@ -1519,22 +1519,22 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
         <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>42</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
         <v>2.84</v>
       </c>
       <c r="H9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.54</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1648,16 +1648,16 @@
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1702,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>48</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1786,7 +1786,7 @@
         <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
@@ -1807,25 +1807,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="n">
         <v>34</v>
@@ -1837,10 +1837,10 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="AK10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="n">
         <v>110</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="n">
         <v>5.1</v>
@@ -1891,7 +1891,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
@@ -1900,7 +1900,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1912,22 +1912,22 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S11" t="n">
         <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="n">
         <v>80</v>
@@ -1963,10 +1963,10 @@
         <v>7.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="n">
         <v>330</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.31</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>6.8</v>
@@ -2035,31 +2035,31 @@
         <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
         <v>2.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
@@ -2077,16 +2077,16 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>40</v>
@@ -2098,13 +2098,13 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2116,10 +2116,10 @@
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AO12" t="n">
         <v>95</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G13" t="n">
         <v>5.9</v>
       </c>
-      <c r="G13" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I13" t="n">
         <v>1.68</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2182,16 +2182,16 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
         <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.89</v>
@@ -2200,7 +2200,7 @@
         <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W13" t="n">
         <v>1.2</v>
@@ -2218,10 +2218,10 @@
         <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>9.800000000000001</v>
@@ -2242,10 +2242,10 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
         <v>75</v>
@@ -2290,7 +2290,7 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.42</v>
@@ -2302,7 +2302,7 @@
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2317,19 +2317,19 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
         <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
         <v>2.56</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
         <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
         <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2560,10 +2560,10 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
         <v>3.25</v>
@@ -2572,7 +2572,7 @@
         <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2605,28 +2605,28 @@
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
@@ -2635,13 +2635,13 @@
         <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
         <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -691,19 +691,19 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
         <v>2.34</v>
@@ -712,7 +712,7 @@
         <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -742,7 +742,7 @@
         <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -763,16 +763,16 @@
         <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.44</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
@@ -814,25 +814,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -862,10 +862,10 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,19 +874,19 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>100</v>
@@ -943,10 +943,10 @@
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.95</v>
@@ -973,10 +973,10 @@
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -988,7 +988,7 @@
         <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1006,7 +1006,7 @@
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
         <v>6.4</v>
@@ -1096,22 +1096,22 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
         <v>1.52</v>
@@ -1123,13 +1123,13 @@
         <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X5" t="n">
         <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1147,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>14.5</v>
@@ -1159,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>18</v>
@@ -1171,13 +1171,13 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1216,7 +1216,7 @@
         <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1225,7 +1225,7 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1255,7 +1255,7 @@
         <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1285,7 +1285,7 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
         <v>16</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
         <v>1.6</v>
@@ -1351,7 +1351,7 @@
         <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
@@ -1375,13 +1375,13 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
         <v>2.54</v>
@@ -1486,7 +1486,7 @@
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1495,13 +1495,13 @@
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1537,10 +1537,10 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
         <v>9.6</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.52</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.54</v>
-      </c>
       <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1648,7 +1648,7 @@
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
         <v>2.32</v>
@@ -1660,19 +1660,19 @@
         <v>2.88</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>38</v>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1699,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>44</v>
@@ -1777,19 +1777,19 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
         <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1837,13 +1837,13 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
         <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
@@ -1924,7 +1924,7 @@
         <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U11" t="n">
         <v>1.7</v>
@@ -1933,13 +1933,13 @@
         <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>500</v>
@@ -1966,13 +1966,13 @@
         <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
         <v>330</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
@@ -2023,7 +2023,7 @@
         <v>1.31</v>
       </c>
       <c r="H12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
@@ -2047,19 +2047,19 @@
         <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q12" t="n">
         <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S12" t="n">
         <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
@@ -2083,7 +2083,7 @@
         <v>380</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>17</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2200,10 +2200,10 @@
         <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
         <v>16.5</v>
@@ -2212,25 +2212,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE13" t="n">
         <v>16.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2257,7 +2257,7 @@
         <v>85</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
         <v>2.42</v>
       </c>
       <c r="I14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2317,7 +2317,7 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
         <v>1.75</v>
@@ -2329,13 +2329,13 @@
         <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
         <v>2.56</v>
       </c>
       <c r="V14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W14" t="n">
         <v>1.46</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
         <v>2.48</v>
@@ -2446,13 +2446,13 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.55</v>
@@ -2461,10 +2461,10 @@
         <v>1.58</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2485,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
@@ -2515,10 +2515,10 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>60</v>
@@ -2527,7 +2527,7 @@
         <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,16 +2560,16 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2578,7 +2578,7 @@
         <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>3.35</v>
@@ -2590,7 +2590,7 @@
         <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -2599,7 +2599,7 @@
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.06</v>
@@ -2611,13 +2611,13 @@
         <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
@@ -2632,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -697,7 +697,7 @@
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
         <v>1.54</v>
@@ -706,73 +706,73 @@
         <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I3" t="n">
         <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
@@ -826,22 +826,22 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.9</v>
@@ -859,16 +859,16 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
         <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>11.5</v>
@@ -880,7 +880,7 @@
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
@@ -892,7 +892,7 @@
         <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
         <v>14</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
         <v>120</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -985,16 +985,16 @@
         <v>2.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
         <v>27</v>
@@ -1015,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1027,10 +1027,10 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1042,7 +1042,7 @@
         <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
@@ -1216,7 +1216,7 @@
         <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1246,16 +1246,16 @@
         <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
         <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
@@ -1375,10 +1375,10 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
         <v>2.8</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
         <v>2.68</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.52</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.54</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
@@ -1537,7 +1537,7 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>55</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1642,31 +1642,31 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U9" t="n">
         <v>2.88</v>
       </c>
       <c r="V9" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
         <v>17</v>
@@ -1675,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC9" t="n">
         <v>9.800000000000001</v>
@@ -1687,37 +1687,37 @@
         <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1780,7 +1780,7 @@
         <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.61</v>
@@ -1795,19 +1795,19 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
         <v>11.5</v>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
@@ -1846,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>130</v>
@@ -1891,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
         <v>8.6</v>
@@ -1912,13 +1912,13 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
         <v>2.26</v>
@@ -1951,19 +1951,19 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AF11" t="n">
         <v>7.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>46</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2041,13 +2041,13 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q12" t="n">
         <v>1.36</v>
@@ -2056,13 +2056,13 @@
         <v>2.06</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.09</v>
@@ -2077,7 +2077,7 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="n">
         <v>380</v>
@@ -2095,7 +2095,7 @@
         <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2104,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2116,10 +2116,10 @@
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO12" t="n">
         <v>95</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G13" t="n">
         <v>5.6</v>
       </c>
-      <c r="G13" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
@@ -2179,13 +2179,13 @@
         <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
         <v>1.44</v>
@@ -2200,7 +2200,7 @@
         <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
         <v>1.21</v>
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB13" t="n">
         <v>19.5</v>
@@ -2227,10 +2227,10 @@
         <v>9.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.34</v>
-      </c>
       <c r="T15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.5</v>
       </c>
-      <c r="U15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>23</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2497,10 +2497,10 @@
         <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2518,16 +2518,16 @@
         <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
         <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
@@ -2590,7 +2590,7 @@
         <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -2599,7 +2599,7 @@
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.06</v>
@@ -2620,7 +2620,7 @@
         <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -673,106 +673,106 @@
         <v>1.84</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>2.18</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -805,19 +805,19 @@
         <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
         <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
         <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.12</v>
@@ -862,10 +862,10 @@
         <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AB3" t="n">
         <v>9.800000000000001</v>
@@ -874,7 +874,7 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
@@ -886,7 +886,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>100</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO3" t="n">
         <v>120</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.22</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -970,7 +970,7 @@
         <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.57</v>
@@ -979,19 +979,19 @@
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
@@ -1015,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1042,7 +1042,7 @@
         <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1078,19 +1078,19 @@
         <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
         <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1102,31 +1102,31 @@
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>2.56</v>
       </c>
       <c r="X5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1225,94 +1225,94 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.59</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G7" t="n">
         <v>1.59</v>
@@ -1351,55 +1351,55 @@
         <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>2.26</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>2.68</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1507,10 +1507,10 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
@@ -1519,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>1.43</v>
@@ -1531,7 +1531,7 @@
         <v>1.65</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1642,13 +1642,13 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
         <v>2.3</v>
@@ -1660,10 +1660,10 @@
         <v>2.88</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
         <v>27</v>
@@ -1672,16 +1672,16 @@
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1696,25 +1696,25 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.12</v>
@@ -1804,10 +1804,10 @@
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>11.5</v>
@@ -1816,43 +1816,43 @@
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AK10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K11" t="n">
         <v>8.800000000000001</v>
@@ -1918,7 +1918,7 @@
         <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
         <v>2.26</v>
@@ -1927,7 +1927,7 @@
         <v>2.34</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
         <v>1.04</v>
@@ -1939,7 +1939,7 @@
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="n">
         <v>490</v>
@@ -1963,28 +1963,28 @@
         <v>7.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H12" t="n">
         <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
         <v>6.8</v>
@@ -2044,7 +2044,7 @@
         <v>8.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P12" t="n">
         <v>3.55</v>
@@ -2056,7 +2056,7 @@
         <v>2.06</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
@@ -2071,7 +2071,7 @@
         <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Y12" t="n">
         <v>60</v>
@@ -2080,10 +2080,10 @@
         <v>120</v>
       </c>
       <c r="AA12" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>17</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>95</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
@@ -2182,7 +2182,7 @@
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
         <v>1.86</v>
@@ -2194,37 +2194,37 @@
         <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2233,31 +2233,31 @@
         <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2320,10 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
         <v>2.86</v>
@@ -2332,7 +2332,7 @@
         <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
         <v>1.68</v>
@@ -2341,7 +2341,7 @@
         <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>13.5</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2455,7 +2455,7 @@
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R15" t="n">
         <v>1.55</v>
@@ -2467,58 +2467,58 @@
         <v>1.53</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
         <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
         <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
         <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2608,7 +2608,7 @@
         <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2617,19 +2617,19 @@
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
         <v>38</v>
@@ -2638,7 +2638,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK16" t="n">
         <v>38</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>FC Sellier &amp; Bellot Vlasim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Zlate Moravce</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>32</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.14</v>
+        <v>1.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Al Wahda (Abu Dhabi)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>110</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>1.27</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>1.27</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Aritma Praha</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>1.27</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>1.13</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.24</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.59</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>2.58</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO8" t="n">
         <v>44</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.54</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.49</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>8.800000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
         <v>32</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10</v>
       </c>
-      <c r="AE10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>75</v>
-      </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>270</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="AN10" t="n">
-        <v>120</v>
+        <v>7.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN11" t="n">
         <v>23</v>
       </c>
-      <c r="J11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>490</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.31</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.21</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.12</v>
       </c>
-      <c r="P12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.2</v>
-      </c>
       <c r="X12" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>60</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
       </c>
       <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
         <v>95</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>25</v>
-      </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.35</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="V13" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>6.2</v>
       </c>
       <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>510</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>940</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
         <v>19</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
       <c r="AH14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>3.35</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,261 +2408,801 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Club Independiente Petro</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="I15" t="n">
-        <v>2.98</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>2.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Club Independiente Petro</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Independiente (Ecu)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>LDU</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="F19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.98</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>3.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.65</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.08</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N19" t="n">
         <v>3.35</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O19" t="n">
         <v>1.34</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R19" t="n">
         <v>1.31</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S19" t="n">
         <v>3.6</v>
       </c>
-      <c r="T16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.06</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V19" t="n">
         <v>1.46</v>
       </c>
-      <c r="W16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="W19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X19" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y19" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
         <v>9</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE19" t="n">
         <v>38</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF19" t="n">
         <v>20</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH19" t="n">
         <v>20</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI19" t="n">
         <v>60</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AJ19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
         <v>120</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN19" t="n">
         <v>30</v>
       </c>
-      <c r="AO16" t="n">
-        <v>42</v>
+      <c r="AO19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>2.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
@@ -961,19 +961,19 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
         <v>1.13</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
         <v>1.13</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.81</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -1087,7 +1087,7 @@
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
@@ -1144,13 +1144,13 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1219,10 +1219,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1231,13 +1231,13 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.63</v>
@@ -1246,7 +1246,7 @@
         <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
         <v>1.87</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.2</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1378,22 +1378,22 @@
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
         <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>36</v>
@@ -1438,7 +1438,7 @@
         <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
         <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
         <v>6.6</v>
@@ -1492,37 +1492,37 @@
         <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
         <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
@@ -1531,34 +1531,34 @@
         <v>2.58</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
         <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
@@ -1567,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1576,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H10" t="n">
         <v>6.6</v>
@@ -1762,7 +1762,7 @@
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.2</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1909,13 +1909,13 @@
         <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1924,16 +1924,16 @@
         <v>2.82</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1942,7 +1942,7 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
@@ -1969,13 +1969,13 @@
         <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
@@ -1984,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,16 +2041,16 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
@@ -2059,22 +2059,22 @@
         <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W12" t="n">
         <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>9</v>
@@ -2086,13 +2086,13 @@
         <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>75</v>
@@ -2104,10 +2104,10 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AK12" t="n">
         <v>120</v>
@@ -2119,7 +2119,7 @@
         <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
         <v>5.5</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -2182,10 +2182,10 @@
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
         <v>1.75</v>
@@ -2194,7 +2194,7 @@
         <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
         <v>2.92</v>
@@ -2212,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
@@ -2227,7 +2227,7 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2248,13 +2248,13 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>42</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>10.5</v>
@@ -2293,13 +2293,13 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
         <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -2323,31 +2323,31 @@
         <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="n">
         <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2362,7 +2362,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AF14" t="n">
         <v>7.8</v>
@@ -2380,10 +2380,10 @@
         <v>8.6</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2449,46 +2449,46 @@
         <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W15" t="n">
         <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
         <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.29</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K16" t="n">
         <v>7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2596,19 +2596,19 @@
         <v>2.08</v>
       </c>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T16" t="n">
         <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X16" t="n">
         <v>50</v>
@@ -2617,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="Z16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="n">
         <v>380</v>
@@ -2629,7 +2629,7 @@
         <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
         <v>140</v>
@@ -2644,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
         <v>11.5</v>
@@ -2653,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
@@ -2713,31 +2713,31 @@
         <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
         <v>1.42</v>
@@ -2794,7 +2794,7 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>42</v>
@@ -2827,76 +2827,76 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
         <v>2.66</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.6</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>14</v>
@@ -2908,31 +2908,31 @@
         <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>95</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -2992,28 +2992,28 @@
         <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
         <v>1.46</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
@@ -3031,13 +3031,13 @@
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3049,25 +3049,25 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
         <v>42</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3118,22 +3118,22 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q20" t="n">
         <v>1.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
         <v>1.42</v>
@@ -715,10 +715,10 @@
         <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I3" t="n">
         <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -838,16 +838,16 @@
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.02</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
@@ -979,10 +979,10 @@
         <v>1.13</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1075,10 +1075,10 @@
         <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
@@ -1159,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
         <v>8.6</v>
@@ -1225,31 +1225,31 @@
         <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1258,28 +1258,28 @@
         <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
         <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
         <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>120</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
@@ -1357,7 +1357,7 @@
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1381,10 +1381,10 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
         <v>2.58</v>
@@ -1393,13 +1393,13 @@
         <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
         <v>27</v>
@@ -1411,7 +1411,7 @@
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>14</v>
@@ -1429,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
         <v>19.5</v>
@@ -1441,10 +1441,10 @@
         <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
         <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y8" t="n">
         <v>40</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>38</v>
       </c>
       <c r="Z8" t="n">
         <v>65</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
         <v>14.5</v>
@@ -1552,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
@@ -1576,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.4</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.58</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1756,13 +1756,13 @@
         <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
         <v>2.7</v>
@@ -1912,7 +1912,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -1921,7 +1921,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1969,7 +1969,7 @@
         <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
         <v>50</v>
@@ -1987,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2035,28 +2035,28 @@
         <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.9</v>
@@ -2074,7 +2074,7 @@
         <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>9</v>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>12.5</v>
@@ -2113,7 +2113,7 @@
         <v>120</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
         <v>110</v>
@@ -2122,7 +2122,7 @@
         <v>110</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
         <v>2.4</v>
@@ -2185,7 +2185,7 @@
         <v>2.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
         <v>1.75</v>
@@ -2221,13 +2221,13 @@
         <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2248,7 +2248,7 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>42</v>
@@ -2293,7 +2293,7 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
         <v>22</v>
@@ -2317,22 +2317,22 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
         <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S14" t="n">
         <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
@@ -2362,7 +2362,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AF14" t="n">
         <v>7.8</v>
@@ -2371,7 +2371,7 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="n">
         <v>280</v>
@@ -2383,7 +2383,7 @@
         <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2428,10 +2428,10 @@
         <v>5.5</v>
       </c>
       <c r="H15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.75</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2446,13 +2446,13 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
         <v>1.81</v>
@@ -2464,13 +2464,13 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W15" t="n">
         <v>1.22</v>
@@ -2485,7 +2485,7 @@
         <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB15" t="n">
         <v>20</v>
@@ -2494,10 +2494,10 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
         <v>42</v>
@@ -2506,7 +2506,7 @@
         <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2518,16 +2518,16 @@
         <v>70</v>
       </c>
       <c r="AL15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN15" t="n">
         <v>70</v>
       </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>75</v>
-      </c>
       <c r="AO15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>1.29</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>6.8</v>
@@ -2581,13 +2581,13 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="n">
         <v>1.36</v>
@@ -2623,7 +2623,7 @@
         <v>380</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
         <v>17</v>
@@ -2635,7 +2635,7 @@
         <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2656,13 +2656,13 @@
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>3.25</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>3.35</v>
@@ -2710,46 +2710,46 @@
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
@@ -2758,7 +2758,7 @@
         <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
         <v>7.4</v>
@@ -2788,13 +2788,13 @@
         <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>42</v>
@@ -2830,16 +2830,16 @@
         <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,88 +2851,88 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U18" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB18" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>20</v>
-      </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>95</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -2980,7 +2980,7 @@
         <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,7 +2992,7 @@
         <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
         <v>1.94</v>
@@ -3001,13 +3001,13 @@
         <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V19" t="n">
         <v>1.46</v>
@@ -3019,7 +3019,7 @@
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3037,7 +3037,7 @@
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3049,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>42</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="G20" t="n">
         <v>1000</v>
@@ -3106,10 +3106,10 @@
         <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="K20" t="n">
         <v>1000</v>
@@ -3136,16 +3136,16 @@
         <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>1.69</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>680</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>750</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>2.64</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.42</v>
       </c>
-      <c r="U2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>600</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="I3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X3" t="n">
         <v>44</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K3" t="n">
-        <v>500</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>2.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.13</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1075,67 +1075,67 @@
         <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
         <v>13.5</v>
@@ -1150,19 +1150,19 @@
         <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1171,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
         <v>25</v>
       </c>
-      <c r="Y6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>29</v>
-      </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
         <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S7" t="n">
         <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W7" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.51</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
         <v>17</v>
       </c>
-      <c r="AC8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>3.65</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.44</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1639,85 +1639,85 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,19 +1795,19 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1822,37 +1822,37 @@
         <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
         <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
         <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2083,46 +2083,46 @@
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
         <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AK12" t="n">
         <v>120</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
         <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2170,67 +2170,67 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2239,25 +2239,25 @@
         <v>13.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
         <v>22</v>
@@ -2302,7 +2302,7 @@
         <v>8.6</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2317,22 +2317,22 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="n">
         <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
@@ -2341,52 +2341,52 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AF14" t="n">
         <v>7.8</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.6</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
         <v>3.35</v>
@@ -2422,70 +2422,70 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="I15" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AB15" t="n">
         <v>20</v>
@@ -2494,40 +2494,40 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="J16" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R16" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="S16" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="X16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AA16" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO16" t="n">
         <v>100</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="H17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.25</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
         <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
         <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.48</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="X18" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="n">
         <v>28</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3.2</v>
@@ -2977,25 +2977,25 @@
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
@@ -3004,22 +3004,22 @@
         <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3028,13 +3028,13 @@
         <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>38</v>
@@ -3043,16 +3043,16 @@
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
         <v>32</v>
@@ -3064,10 +3064,10 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.18</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>1.26</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.31</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Sellier &amp; Bellot Vlasim</t>
+          <t>Al Wahda (Abu Dhabi)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zlate Moravce</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="I2" t="n">
-        <v>680</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>750</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>670</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Wahda (Abu Dhabi)</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Aritma Praha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>1.47</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.51</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.23</v>
@@ -826,94 +826,94 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>2.86</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.5</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>230</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>5.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aritma Praha</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.47</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>2.66</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF4" t="n">
         <v>15</v>
       </c>
-      <c r="AC4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.18</v>
+        <v>2.96</v>
       </c>
       <c r="X5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>25</v>
       </c>
-      <c r="Y5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.79</v>
       </c>
-      <c r="S6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="n">
         <v>12</v>
       </c>
-      <c r="AD6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AO6" t="n">
         <v>24</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="R7" t="n">
-        <v>1.59</v>
+        <v>2.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>1.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>14</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>14</v>
       </c>
-      <c r="AE7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.47</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.96</v>
-      </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="n">
         <v>85</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.65</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="AF9" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>2.34</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>2.36</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
         <v>11</v>
       </c>
-      <c r="AD10" t="n">
-        <v>32</v>
-      </c>
       <c r="AE10" t="n">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
         <v>55</v>
       </c>
-      <c r="AM10" t="n">
-        <v>200</v>
-      </c>
       <c r="AN10" t="n">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>180</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>1.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.67</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>3.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="n">
         <v>30</v>
       </c>
-      <c r="AB11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>9.199999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1.41</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>12</v>
       </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="13">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>1.19</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>21</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.26</v>
@@ -2176,88 +2176,88 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.47</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>470</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK13" t="n">
         <v>14</v>
       </c>
-      <c r="AH13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>27</v>
-      </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>1.8</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>1.81</v>
       </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO14" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>460</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>1.36</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>1.78</v>
+        <v>9.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.79</v>
+        <v>9.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>2.26</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>3.7</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>12.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.36</v>
+        <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>1.37</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>9.4</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>1.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.96</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>3.7</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
         <v>44</v>
       </c>
-      <c r="Y16" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>110</v>
-      </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.8</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Club Independiente Petro</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.82</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
       </c>
       <c r="AH17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
         <v>22</v>
       </c>
-      <c r="AI17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>38</v>
-      </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Independiente (Ecu)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Club Independiente Petro</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.49</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN18" t="n">
         <v>30</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>48</v>
-      </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,261 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="n">
         <v>110</v>
       </c>
-      <c r="AK19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="S3" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
         <v>16</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
         <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.27</v>
@@ -1096,28 +1096,28 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1129,13 +1129,13 @@
         <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1144,13 +1144,13 @@
         <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9.800000000000001</v>
@@ -1162,10 +1162,10 @@
         <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1174,10 +1174,10 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1243,76 +1243,76 @@
         <v>1.65</v>
       </c>
       <c r="R6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.59</v>
       </c>
-      <c r="S6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
         <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
         <v>5.6</v>
@@ -1360,34 +1360,34 @@
         <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="S7" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="T7" t="n">
         <v>1.41</v>
       </c>
       <c r="U7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="V7" t="n">
         <v>1.15</v>
@@ -1396,10 +1396,10 @@
         <v>3.1</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,46 +1408,46 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,7 +1507,7 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
         <v>1.62</v>
@@ -1516,34 +1516,34 @@
         <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
         <v>2.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.199999999999999</v>
@@ -1552,37 +1552,37 @@
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.35</v>
@@ -1636,88 +1636,88 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="n">
         <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.2</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1768,43 +1768,43 @@
         <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -1813,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.800000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>14</v>
@@ -1849,7 +1849,7 @@
         <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>12.5</v>
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.8</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
         <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
@@ -1960,34 +1960,34 @@
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AK11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM11" t="n">
         <v>120</v>
       </c>
-      <c r="AL11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>110</v>
-      </c>
       <c r="AN11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.34</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.36</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2035,52 +2035,52 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2089,10 +2089,10 @@
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>26</v>
@@ -2107,10 +2107,10 @@
         <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>27</v>
@@ -2119,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
         <v>9.6</v>
@@ -2185,7 +2185,7 @@
         <v>2.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
         <v>1.75</v>
@@ -2194,7 +2194,7 @@
         <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U13" t="n">
         <v>1.71</v>
@@ -2206,10 +2206,10 @@
         <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2224,16 +2224,16 @@
         <v>19</v>
       </c>
       <c r="AD13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="AF13" t="n">
         <v>7.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>46</v>
@@ -2293,7 +2293,7 @@
         <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I14" t="n">
         <v>1.81</v>
@@ -2317,22 +2317,22 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>2.22</v>
@@ -2344,10 +2344,10 @@
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>18.5</v>
@@ -2371,10 +2371,10 @@
         <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>110</v>
@@ -2386,13 +2386,13 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H15" t="n">
         <v>9.4</v>
@@ -2434,46 +2434,46 @@
         <v>9.6</v>
       </c>
       <c r="J15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R15" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S15" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="X15" t="n">
         <v>44</v>
@@ -2488,7 +2488,7 @@
         <v>280</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
@@ -2524,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO15" t="n">
         <v>100</v>
@@ -2560,70 +2560,70 @@
         <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
         <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.2</v>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
         <v>15.5</v>
@@ -2641,28 +2641,28 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -2716,88 +2716,88 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
         <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="V17" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>14</v>
       </c>
       <c r="AI17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
         <v>30</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>22</v>
-      </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2851,16 +2851,16 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
         <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
@@ -2869,46 +2869,46 @@
         <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
       </c>
       <c r="AD18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
         <v>20</v>
@@ -2917,22 +2917,22 @@
         <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
         <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2962,97 +2962,97 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W19" t="n">
         <v>1.48</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
@@ -3064,10 +3064,10 @@
         <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Wahda (Abu Dhabi)</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -751,34 +751,34 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="AO2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aritma Praha</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>2.86</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="n">
         <v>60</v>
       </c>
-      <c r="Z3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>1000</v>
       </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
       <c r="AC3" t="n">
-        <v>19.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1000</v>
       </c>
-      <c r="AF3" t="n">
-        <v>16</v>
-      </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>5.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM4" t="n">
         <v>50</v>
       </c>
-      <c r="AF4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60</v>
-      </c>
       <c r="AN4" t="n">
-        <v>8.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB5" t="n">
         <v>32</v>
       </c>
-      <c r="Y5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
       <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,30 +1193,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1225,100 +1225,100 @@
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.65</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="W6" t="n">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>27</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AJ6" t="n">
         <v>65</v>
       </c>
-      <c r="AB6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.47</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.66</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.54</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE7" t="n">
         <v>110</v>
       </c>
-      <c r="Y7" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
         <v>120</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.74</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.48</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>5.9</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>880</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AD8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12</v>
       </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>8.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J9" t="n">
         <v>6.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.7</v>
-      </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="n">
         <v>55</v>
       </c>
-      <c r="AN10" t="n">
-        <v>20</v>
-      </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>26</v>
-      </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>32</v>
-      </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.79</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2077,7 +2077,7 @@
         <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2092,37 +2092,37 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>48</v>
       </c>
       <c r="AK12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL12" t="n">
         <v>28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>27</v>
       </c>
       <c r="AM12" t="n">
         <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>8.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>21</v>
+        <v>1.42</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>1.43</v>
       </c>
       <c r="J13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z13" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="K13" t="n">
-        <v>9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>490</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.6</v>
+        <v>70</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.4</v>
+        <v>270</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="n">
-        <v>500</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>60</v>
-      </c>
       <c r="AO14" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Club Independiente Petro</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.34</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>9.4</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>9.6</v>
+        <v>2.84</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="W15" t="n">
-        <v>3.85</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="n">
         <v>44</v>
       </c>
-      <c r="Y15" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>280</v>
-      </c>
       <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" t="n">
         <v>15</v>
       </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>34</v>
-      </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK15" t="n">
         <v>22</v>
       </c>
-      <c r="AI15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Independiente (Ecu)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.57</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,395 +2678,125 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Club Independiente Petro</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="I17" t="n">
-        <v>2.34</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
         <v>32</v>
       </c>
-      <c r="AM17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Independiente (Ecu)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X19" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO19" t="n">
         <v>27</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,76 +703,76 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -793,31 +793,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>1.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>85</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.98</v>
+        <v>17.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>2.52</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,49 +1006,49 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.7</v>
+        <v>2.88</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>690</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>960</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>17.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>1.14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.01</v>
       </c>
-      <c r="N5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.64</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>100</v>
       </c>
       <c r="T5" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>1.03</v>
       </c>
       <c r="X5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD5" t="n">
         <v>32</v>
       </c>
-      <c r="AC5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>29</v>
-      </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.25</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>5.7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>1.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>840</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.48</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.21</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="J8" t="n">
-        <v>8.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>7.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM8" t="n">
         <v>60</v>
       </c>
-      <c r="Z8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>880</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>230</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.34</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.4</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB9" t="n">
         <v>9.6</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X9" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
       <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="n">
         <v>34</v>
       </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11</v>
-      </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>440</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.65</v>
+        <v>540</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>1.49</v>
       </c>
       <c r="H10" t="n">
-        <v>1.78</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>2.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>3.6</v>
       </c>
       <c r="AC10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9</v>
       </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="n">
         <v>120</v>
       </c>
-      <c r="AK10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="AN10" t="n">
         <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>9.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1.13</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>6.8</v>
       </c>
       <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM11" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>1.21</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>1.22</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.79</v>
+        <v>5.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH12" t="n">
         <v>28</v>
       </c>
-      <c r="Y12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AM12" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>470</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.6</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>1.42</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC13" t="n">
         <v>5.5</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>70</v>
+        <v>8.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Club Independiente Petro</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.25</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.52</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.61</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.76</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>25</v>
       </c>
       <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>14</v>
       </c>
-      <c r="AH14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Independiente (Ecu)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Club Independiente Petro</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>2.12</v>
+        <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.82</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="n">
         <v>32</v>
       </c>
-      <c r="Y15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>22</v>
-      </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,260 +2543,125 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.55</v>
       </c>
       <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.35</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S16" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO17" t="n">
         <v>27</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,396 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Independiente Petro</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.06</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.08</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="n">
         <v>44</v>
       </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF2" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>860</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.2</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.2</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Independiente (Ecu)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ3" t="n">
         <v>55</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
